--- a/Jogos_do_Dia/2023-02-26_FutPythonTrader_Jogos_do_Dia.xlsx
+++ b/Jogos_do_Dia/2023-02-26_FutPythonTrader_Jogos_do_Dia.xlsx
@@ -289,18 +289,18 @@
     <t>Renofa Yamaguchi</t>
   </si>
   <si>
+    <t>Jeju United</t>
+  </si>
+  <si>
+    <t>Machida Zelvia</t>
+  </si>
+  <si>
+    <t>Sanfrecce Hiroshima</t>
+  </si>
+  <si>
     <t>Pohang Steelers</t>
   </si>
   <si>
-    <t>Jeju United</t>
-  </si>
-  <si>
-    <t>Machida Zelvia</t>
-  </si>
-  <si>
-    <t>Sanfrecce Hiroshima</t>
-  </si>
-  <si>
     <t>Brisbane Roar</t>
   </si>
   <si>
@@ -655,16 +655,16 @@
     <t>Jubilo Iwata</t>
   </si>
   <si>
+    <t>Suwon</t>
+  </si>
+  <si>
+    <t>ThespaKusatsu Gunma</t>
+  </si>
+  <si>
+    <t>Albirex Niigata</t>
+  </si>
+  <si>
     <t>Daegu</t>
-  </si>
-  <si>
-    <t>Suwon</t>
-  </si>
-  <si>
-    <t>ThespaKusatsu Gunma</t>
-  </si>
-  <si>
-    <t>Albirex Niigata</t>
   </si>
   <si>
     <t>Perth Glory FC</t>
@@ -1504,10 +1504,10 @@
         <v>1.53</v>
       </c>
       <c r="V2">
-        <v>2</v>
+        <v>1.33</v>
       </c>
       <c r="W2">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="X2">
         <v>1.24</v>
@@ -1560,13 +1560,13 @@
         <v>197</v>
       </c>
       <c r="F3">
-        <v>1.56</v>
+        <v>1.61</v>
       </c>
       <c r="G3">
-        <v>4.3</v>
+        <v>4.2</v>
       </c>
       <c r="H3">
-        <v>5.22</v>
+        <v>5.05</v>
       </c>
       <c r="I3">
         <v>1.02</v>
@@ -1581,10 +1581,10 @@
         <v>4.5</v>
       </c>
       <c r="M3">
-        <v>1.54</v>
+        <v>1.6</v>
       </c>
       <c r="N3">
-        <v>2.38</v>
+        <v>2.15</v>
       </c>
       <c r="O3">
         <v>1.29</v>
@@ -1608,7 +1608,7 @@
         <v>2.5</v>
       </c>
       <c r="V3">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="W3">
         <v>0</v>
@@ -1664,13 +1664,13 @@
         <v>198</v>
       </c>
       <c r="F4">
-        <v>2.1</v>
+        <v>2.06</v>
       </c>
       <c r="G4">
-        <v>3.7</v>
+        <v>3.72</v>
       </c>
       <c r="H4">
-        <v>3.14</v>
+        <v>3.3</v>
       </c>
       <c r="I4">
         <v>1.03</v>
@@ -1685,10 +1685,10 @@
         <v>3.8</v>
       </c>
       <c r="M4">
-        <v>1.64</v>
+        <v>1.6</v>
       </c>
       <c r="N4">
-        <v>2.18</v>
+        <v>2.15</v>
       </c>
       <c r="O4">
         <v>1.33</v>
@@ -1715,7 +1715,7 @@
         <v>0</v>
       </c>
       <c r="W4">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="X4">
         <v>0</v>
@@ -1768,13 +1768,13 @@
         <v>199</v>
       </c>
       <c r="F5">
-        <v>1.6</v>
+        <v>1.69</v>
       </c>
       <c r="G5">
-        <v>4.3</v>
+        <v>4.14</v>
       </c>
       <c r="H5">
-        <v>4.82</v>
+        <v>4.48</v>
       </c>
       <c r="I5">
         <v>1.02</v>
@@ -1789,10 +1789,10 @@
         <v>4.5</v>
       </c>
       <c r="M5">
-        <v>1.54</v>
+        <v>1.53</v>
       </c>
       <c r="N5">
-        <v>2.38</v>
+        <v>2.35</v>
       </c>
       <c r="O5">
         <v>1.29</v>
@@ -1816,7 +1816,7 @@
         <v>2.35</v>
       </c>
       <c r="V5">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="W5">
         <v>0</v>
@@ -1872,13 +1872,13 @@
         <v>200</v>
       </c>
       <c r="F6">
-        <v>2.35</v>
+        <v>2.29</v>
       </c>
       <c r="G6">
-        <v>3.6</v>
+        <v>3.68</v>
       </c>
       <c r="H6">
-        <v>2.76</v>
+        <v>2.87</v>
       </c>
       <c r="I6">
         <v>1.03</v>
@@ -1893,10 +1893,10 @@
         <v>4</v>
       </c>
       <c r="M6">
-        <v>1.63</v>
+        <v>1.61</v>
       </c>
       <c r="N6">
-        <v>2.19</v>
+        <v>2.15</v>
       </c>
       <c r="O6">
         <v>1.3</v>
@@ -1920,7 +1920,7 @@
         <v>1.65</v>
       </c>
       <c r="V6">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="W6">
         <v>0</v>
@@ -1976,13 +1976,13 @@
         <v>201</v>
       </c>
       <c r="F7">
-        <v>2.5</v>
+        <v>2.53</v>
       </c>
       <c r="G7">
-        <v>3.45</v>
+        <v>3.56</v>
       </c>
       <c r="H7">
-        <v>2.67</v>
+        <v>2.62</v>
       </c>
       <c r="I7">
         <v>1.04</v>
@@ -2000,7 +2000,7 @@
         <v>1.75</v>
       </c>
       <c r="N7">
-        <v>2.01</v>
+        <v>2.08</v>
       </c>
       <c r="O7">
         <v>1.33</v>
@@ -2024,7 +2024,7 @@
         <v>1.55</v>
       </c>
       <c r="V7">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="W7">
         <v>0</v>
@@ -2080,13 +2080,13 @@
         <v>202</v>
       </c>
       <c r="F8">
-        <v>2.32</v>
+        <v>2.33</v>
       </c>
       <c r="G8">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="H8">
-        <v>3.06</v>
+        <v>3</v>
       </c>
       <c r="I8">
         <v>1.07</v>
@@ -2101,10 +2101,10 @@
         <v>3.3</v>
       </c>
       <c r="M8">
-        <v>2.05</v>
+        <v>1.99</v>
       </c>
       <c r="N8">
-        <v>1.72</v>
+        <v>1.82</v>
       </c>
       <c r="O8">
         <v>1.44</v>
@@ -2128,7 +2128,7 @@
         <v>1.62</v>
       </c>
       <c r="V8">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="W8">
         <v>0</v>
@@ -2184,13 +2184,13 @@
         <v>203</v>
       </c>
       <c r="F9">
-        <v>1.7</v>
+        <v>1.74</v>
       </c>
       <c r="G9">
-        <v>3.75</v>
+        <v>3.8</v>
       </c>
       <c r="H9">
-        <v>4.76</v>
+        <v>4.56</v>
       </c>
       <c r="I9">
         <v>1.05</v>
@@ -2205,7 +2205,7 @@
         <v>3.4</v>
       </c>
       <c r="M9">
-        <v>1.83</v>
+        <v>1.89</v>
       </c>
       <c r="N9">
         <v>1.91</v>
@@ -2232,7 +2232,7 @@
         <v>2.23</v>
       </c>
       <c r="V9">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="W9">
         <v>0</v>
@@ -2288,13 +2288,13 @@
         <v>204</v>
       </c>
       <c r="F10">
-        <v>1.58</v>
+        <v>1.53</v>
       </c>
       <c r="G10">
-        <v>4.3</v>
+        <v>4.2</v>
       </c>
       <c r="H10">
-        <v>5.3</v>
+        <v>5.8</v>
       </c>
       <c r="I10">
         <v>0</v>
@@ -2309,7 +2309,7 @@
         <v>0</v>
       </c>
       <c r="M10">
-        <v>1.67</v>
+        <v>1.66</v>
       </c>
       <c r="N10">
         <v>2.12</v>
@@ -2339,7 +2339,7 @@
         <v>0</v>
       </c>
       <c r="W10">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="X10">
         <v>0</v>
@@ -2392,13 +2392,13 @@
         <v>205</v>
       </c>
       <c r="F11">
-        <v>1.75</v>
+        <v>1.97</v>
       </c>
       <c r="G11">
-        <v>3.75</v>
+        <v>3.74</v>
       </c>
       <c r="H11">
-        <v>4.41</v>
+        <v>3.54</v>
       </c>
       <c r="I11">
         <v>1.04</v>
@@ -2413,10 +2413,10 @@
         <v>3.6</v>
       </c>
       <c r="M11">
-        <v>1.8</v>
+        <v>1.7</v>
       </c>
       <c r="N11">
-        <v>1.95</v>
+        <v>2.05</v>
       </c>
       <c r="O11">
         <v>1.36</v>
@@ -2443,7 +2443,7 @@
         <v>0</v>
       </c>
       <c r="W11">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="X11">
         <v>0</v>
@@ -2496,13 +2496,13 @@
         <v>206</v>
       </c>
       <c r="F12">
-        <v>2.3</v>
+        <v>2.4</v>
       </c>
       <c r="G12">
-        <v>3.45</v>
+        <v>3.5</v>
       </c>
       <c r="H12">
-        <v>2.94</v>
+        <v>2.83</v>
       </c>
       <c r="I12">
         <v>1.05</v>
@@ -2517,10 +2517,10 @@
         <v>3.4</v>
       </c>
       <c r="M12">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="N12">
-        <v>1.95</v>
+        <v>1.97</v>
       </c>
       <c r="O12">
         <v>1.36</v>
@@ -2547,7 +2547,7 @@
         <v>0</v>
       </c>
       <c r="W12">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="X12">
         <v>0</v>
@@ -2600,13 +2600,13 @@
         <v>207</v>
       </c>
       <c r="F13">
-        <v>2.1</v>
+        <v>2.47</v>
       </c>
       <c r="G13">
-        <v>3.3</v>
+        <v>3.56</v>
       </c>
       <c r="H13">
-        <v>3.3</v>
+        <v>2.72</v>
       </c>
       <c r="I13">
         <v>1.04</v>
@@ -2621,10 +2621,10 @@
         <v>4.18</v>
       </c>
       <c r="M13">
-        <v>1.78</v>
+        <v>1.77</v>
       </c>
       <c r="N13">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="O13">
         <v>1.33</v>
@@ -2648,10 +2648,10 @@
         <v>1.65</v>
       </c>
       <c r="V13">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="W13">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="X13">
         <v>1.5</v>
@@ -2704,13 +2704,13 @@
         <v>208</v>
       </c>
       <c r="F14">
-        <v>2.6</v>
+        <v>2.63</v>
       </c>
       <c r="G14">
-        <v>3.15</v>
+        <v>3.1</v>
       </c>
       <c r="H14">
-        <v>2.55</v>
+        <v>2.5</v>
       </c>
       <c r="I14">
         <v>1.05</v>
@@ -2725,7 +2725,7 @@
         <v>3.2</v>
       </c>
       <c r="M14">
-        <v>2.07</v>
+        <v>2.1</v>
       </c>
       <c r="N14">
         <v>1.67</v>
@@ -2752,10 +2752,10 @@
         <v>1.43</v>
       </c>
       <c r="V14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X14">
         <v>0</v>
@@ -2808,13 +2808,13 @@
         <v>209</v>
       </c>
       <c r="F15">
-        <v>1.85</v>
+        <v>1.87</v>
       </c>
       <c r="G15">
-        <v>3.35</v>
+        <v>3.2</v>
       </c>
       <c r="H15">
-        <v>3.91</v>
+        <v>3.9</v>
       </c>
       <c r="I15">
         <v>1.07</v>
@@ -2829,10 +2829,10 @@
         <v>2.75</v>
       </c>
       <c r="M15">
-        <v>2.36</v>
+        <v>2.35</v>
       </c>
       <c r="N15">
-        <v>1.52</v>
+        <v>1.53</v>
       </c>
       <c r="O15">
         <v>1.53</v>
@@ -2859,7 +2859,7 @@
         <v>0</v>
       </c>
       <c r="W15">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="X15">
         <v>0</v>
@@ -2915,10 +2915,10 @@
         <v>1.95</v>
       </c>
       <c r="G16">
-        <v>3.15</v>
+        <v>3.1</v>
       </c>
       <c r="H16">
-        <v>3.78</v>
+        <v>3.6</v>
       </c>
       <c r="I16">
         <v>1.05</v>
@@ -2933,10 +2933,10 @@
         <v>2.68</v>
       </c>
       <c r="M16">
-        <v>2.25</v>
+        <v>2.3</v>
       </c>
       <c r="N16">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="O16">
         <v>1.5</v>
@@ -2960,7 +2960,7 @@
         <v>1.78</v>
       </c>
       <c r="V16">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="W16">
         <v>0</v>
@@ -3016,13 +3016,13 @@
         <v>211</v>
       </c>
       <c r="F17">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="G17">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="H17">
-        <v>2.96</v>
+        <v>2.88</v>
       </c>
       <c r="I17">
         <v>1.02</v>
@@ -3037,7 +3037,7 @@
         <v>3.44</v>
       </c>
       <c r="M17">
-        <v>1.9</v>
+        <v>1.91</v>
       </c>
       <c r="N17">
         <v>1.8</v>
@@ -3064,7 +3064,7 @@
         <v>1.58</v>
       </c>
       <c r="V17">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="W17">
         <v>0</v>
@@ -3123,10 +3123,10 @@
         <v>2.88</v>
       </c>
       <c r="G18">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="H18">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="I18">
         <v>1.02</v>
@@ -3141,7 +3141,7 @@
         <v>3.25</v>
       </c>
       <c r="M18">
-        <v>1.9</v>
+        <v>1.91</v>
       </c>
       <c r="N18">
         <v>1.8</v>
@@ -3168,10 +3168,10 @@
         <v>1.33</v>
       </c>
       <c r="V18">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="W18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X18">
         <v>1.29</v>
@@ -3230,96 +3230,96 @@
         <v>3.6</v>
       </c>
       <c r="H19">
-        <v>4.24</v>
+        <v>4.5</v>
       </c>
       <c r="I19">
-        <v>1.05</v>
+        <v>1.04</v>
       </c>
       <c r="J19">
         <v>8</v>
       </c>
       <c r="K19">
-        <v>1.27</v>
+        <v>1.32</v>
       </c>
       <c r="L19">
-        <v>3.4</v>
+        <v>3.1</v>
       </c>
       <c r="M19">
+        <v>2.15</v>
+      </c>
+      <c r="N19">
+        <v>1.61</v>
+      </c>
+      <c r="O19">
+        <v>1.44</v>
+      </c>
+      <c r="P19">
+        <v>2.63</v>
+      </c>
+      <c r="Q19">
+        <v>2</v>
+      </c>
+      <c r="R19">
+        <v>1.73</v>
+      </c>
+      <c r="S19">
+        <v>1.15</v>
+      </c>
+      <c r="T19">
+        <v>1.25</v>
+      </c>
+      <c r="U19">
+        <v>2</v>
+      </c>
+      <c r="V19">
+        <v>1</v>
+      </c>
+      <c r="W19">
+        <v>1</v>
+      </c>
+      <c r="X19">
+        <v>0</v>
+      </c>
+      <c r="Y19">
+        <v>0</v>
+      </c>
+      <c r="Z19">
+        <v>0</v>
+      </c>
+      <c r="AA19">
+        <v>1.31</v>
+      </c>
+      <c r="AB19">
+        <v>9.199999999999999</v>
+      </c>
+      <c r="AC19">
+        <v>4.68</v>
+      </c>
+      <c r="AD19">
+        <v>1.48</v>
+      </c>
+      <c r="AE19">
         <v>1.87</v>
       </c>
-      <c r="N19">
-        <v>1.83</v>
-      </c>
-      <c r="O19">
-        <v>1.4</v>
-      </c>
-      <c r="P19">
-        <v>2.75</v>
-      </c>
-      <c r="Q19">
-        <v>1.83</v>
-      </c>
-      <c r="R19">
-        <v>1.83</v>
-      </c>
-      <c r="S19">
-        <v>1.18</v>
-      </c>
-      <c r="T19">
-        <v>1.28</v>
-      </c>
-      <c r="U19">
-        <v>1.85</v>
-      </c>
-      <c r="V19">
-        <v>0</v>
-      </c>
-      <c r="W19">
-        <v>0</v>
-      </c>
-      <c r="X19">
-        <v>0</v>
-      </c>
-      <c r="Y19">
-        <v>0</v>
-      </c>
-      <c r="Z19">
-        <v>0</v>
-      </c>
-      <c r="AA19">
-        <v>1.39</v>
-      </c>
-      <c r="AB19">
-        <v>8.699999999999999</v>
-      </c>
-      <c r="AC19">
-        <v>3.98</v>
-      </c>
-      <c r="AD19">
-        <v>1.45</v>
-      </c>
-      <c r="AE19">
-        <v>1.82</v>
-      </c>
       <c r="AF19">
-        <v>2.34</v>
+        <v>2.41</v>
       </c>
       <c r="AG19">
-        <v>3.18</v>
+        <v>3.28</v>
       </c>
       <c r="AH19">
-        <v>4.5</v>
+        <v>4.74</v>
       </c>
     </row>
     <row r="20" spans="1:34">
       <c r="A20" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B20" s="2">
         <v>44983.08333333334</v>
       </c>
       <c r="C20">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D20" t="s">
         <v>92</v>
@@ -3328,96 +3328,96 @@
         <v>214</v>
       </c>
       <c r="F20">
-        <v>1.77</v>
+        <v>1.73</v>
       </c>
       <c r="G20">
-        <v>3.5</v>
+        <v>3.3</v>
       </c>
       <c r="H20">
-        <v>4.27</v>
+        <v>4.5</v>
       </c>
       <c r="I20">
-        <v>1.04</v>
+        <v>1.05</v>
       </c>
       <c r="J20">
-        <v>8</v>
+        <v>7.4</v>
       </c>
       <c r="K20">
-        <v>1.32</v>
+        <v>1.39</v>
       </c>
       <c r="L20">
-        <v>3.1</v>
+        <v>2.71</v>
       </c>
       <c r="M20">
-        <v>2.11</v>
+        <v>2.3</v>
       </c>
       <c r="N20">
-        <v>1.65</v>
+        <v>1.53</v>
       </c>
       <c r="O20">
-        <v>1.44</v>
+        <v>1.5</v>
       </c>
       <c r="P20">
-        <v>2.63</v>
+        <v>2.5</v>
       </c>
       <c r="Q20">
+        <v>2.1</v>
+      </c>
+      <c r="R20">
+        <v>1.67</v>
+      </c>
+      <c r="S20">
+        <v>1.16</v>
+      </c>
+      <c r="T20">
+        <v>1.27</v>
+      </c>
+      <c r="U20">
+        <v>1.98</v>
+      </c>
+      <c r="V20">
         <v>2</v>
       </c>
-      <c r="R20">
-        <v>1.73</v>
-      </c>
-      <c r="S20">
-        <v>1.15</v>
-      </c>
-      <c r="T20">
-        <v>1.25</v>
-      </c>
-      <c r="U20">
+      <c r="W20">
+        <v>0</v>
+      </c>
+      <c r="X20">
+        <v>1.87</v>
+      </c>
+      <c r="Y20">
+        <v>0</v>
+      </c>
+      <c r="Z20">
+        <v>1.87</v>
+      </c>
+      <c r="AA20">
+        <v>1.3</v>
+      </c>
+      <c r="AB20">
+        <v>6.75</v>
+      </c>
+      <c r="AC20">
+        <v>4.15</v>
+      </c>
+      <c r="AD20">
+        <v>1.3</v>
+      </c>
+      <c r="AE20">
+        <v>1.57</v>
+      </c>
+      <c r="AF20">
         <v>2</v>
       </c>
-      <c r="V20">
-        <v>0</v>
-      </c>
-      <c r="W20">
-        <v>0</v>
-      </c>
-      <c r="X20">
-        <v>0</v>
-      </c>
-      <c r="Y20">
-        <v>0</v>
-      </c>
-      <c r="Z20">
-        <v>0</v>
-      </c>
-      <c r="AA20">
-        <v>1.31</v>
-      </c>
-      <c r="AB20">
-        <v>9.199999999999999</v>
-      </c>
-      <c r="AC20">
-        <v>4.68</v>
-      </c>
-      <c r="AD20">
-        <v>1.48</v>
-      </c>
-      <c r="AE20">
-        <v>1.87</v>
-      </c>
-      <c r="AF20">
-        <v>2.41</v>
-      </c>
       <c r="AG20">
-        <v>3.28</v>
+        <v>2.7</v>
       </c>
       <c r="AH20">
-        <v>4.74</v>
+        <v>3.75</v>
       </c>
     </row>
     <row r="21" spans="1:34">
       <c r="A21" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B21" s="2">
         <v>44983.08333333334</v>
@@ -3432,102 +3432,102 @@
         <v>215</v>
       </c>
       <c r="F21">
-        <v>1.7</v>
+        <v>1.8</v>
       </c>
       <c r="G21">
-        <v>3.4</v>
+        <v>3.74</v>
       </c>
       <c r="H21">
-        <v>4.7</v>
+        <v>4.34</v>
       </c>
       <c r="I21">
-        <v>1.05</v>
+        <v>1.04</v>
       </c>
       <c r="J21">
-        <v>7.4</v>
+        <v>8.5</v>
       </c>
       <c r="K21">
-        <v>1.39</v>
+        <v>1.22</v>
       </c>
       <c r="L21">
-        <v>2.71</v>
+        <v>3.7</v>
       </c>
       <c r="M21">
-        <v>2.25</v>
+        <v>1.9</v>
       </c>
       <c r="N21">
-        <v>1.57</v>
+        <v>1.9</v>
       </c>
       <c r="O21">
-        <v>1.5</v>
+        <v>1.36</v>
       </c>
       <c r="P21">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="Q21">
+        <v>1.8</v>
+      </c>
+      <c r="R21">
+        <v>1.95</v>
+      </c>
+      <c r="S21">
+        <v>1.12</v>
+      </c>
+      <c r="T21">
+        <v>1.25</v>
+      </c>
+      <c r="U21">
         <v>2.1</v>
       </c>
-      <c r="R21">
-        <v>1.67</v>
-      </c>
-      <c r="S21">
-        <v>1.16</v>
-      </c>
-      <c r="T21">
-        <v>1.27</v>
-      </c>
-      <c r="U21">
-        <v>1.98</v>
-      </c>
       <c r="V21">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="W21">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="X21">
-        <v>1.87</v>
+        <v>1.61</v>
       </c>
       <c r="Y21">
-        <v>0</v>
+        <v>1.4</v>
       </c>
       <c r="Z21">
-        <v>1.87</v>
+        <v>3.01</v>
       </c>
       <c r="AA21">
-        <v>1.3</v>
+        <v>1.53</v>
       </c>
       <c r="AB21">
-        <v>6.75</v>
+        <v>8</v>
       </c>
       <c r="AC21">
-        <v>4.15</v>
+        <v>3</v>
       </c>
       <c r="AD21">
-        <v>1.3</v>
+        <v>1.45</v>
       </c>
       <c r="AE21">
-        <v>1.57</v>
+        <v>1.83</v>
       </c>
       <c r="AF21">
-        <v>2</v>
+        <v>2.4</v>
       </c>
       <c r="AG21">
-        <v>2.7</v>
+        <v>3.35</v>
       </c>
       <c r="AH21">
-        <v>3.75</v>
+        <v>4.8</v>
       </c>
     </row>
     <row r="22" spans="1:34">
       <c r="A22" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B22" s="2">
-        <v>44983.08333333334</v>
+        <v>44983.10416666666</v>
       </c>
       <c r="C22">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D22" t="s">
         <v>94</v>
@@ -3536,91 +3536,91 @@
         <v>216</v>
       </c>
       <c r="F22">
-        <v>1.7</v>
+        <v>1.75</v>
       </c>
       <c r="G22">
-        <v>3.85</v>
+        <v>3.5</v>
       </c>
       <c r="H22">
-        <v>4.22</v>
+        <v>4.33</v>
       </c>
       <c r="I22">
-        <v>1.04</v>
+        <v>1.05</v>
       </c>
       <c r="J22">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="K22">
-        <v>1.22</v>
+        <v>1.27</v>
       </c>
       <c r="L22">
-        <v>3.7</v>
+        <v>3.4</v>
       </c>
       <c r="M22">
-        <v>1.77</v>
+        <v>1.91</v>
       </c>
       <c r="N22">
-        <v>1.94</v>
+        <v>1.8</v>
       </c>
       <c r="O22">
-        <v>1.36</v>
+        <v>1.4</v>
       </c>
       <c r="P22">
+        <v>2.75</v>
+      </c>
+      <c r="Q22">
+        <v>1.83</v>
+      </c>
+      <c r="R22">
+        <v>1.83</v>
+      </c>
+      <c r="S22">
+        <v>1.18</v>
+      </c>
+      <c r="T22">
+        <v>1.28</v>
+      </c>
+      <c r="U22">
+        <v>1.85</v>
+      </c>
+      <c r="V22">
         <v>3</v>
       </c>
-      <c r="Q22">
-        <v>1.8</v>
-      </c>
-      <c r="R22">
-        <v>1.95</v>
-      </c>
-      <c r="S22">
-        <v>1.12</v>
-      </c>
-      <c r="T22">
-        <v>1.25</v>
-      </c>
-      <c r="U22">
-        <v>2.1</v>
-      </c>
-      <c r="V22">
-        <v>1</v>
-      </c>
       <c r="W22">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X22">
-        <v>1.61</v>
+        <v>0</v>
       </c>
       <c r="Y22">
-        <v>1.4</v>
+        <v>0</v>
       </c>
       <c r="Z22">
-        <v>3.01</v>
+        <v>0</v>
       </c>
       <c r="AA22">
-        <v>1.53</v>
+        <v>1.39</v>
       </c>
       <c r="AB22">
-        <v>8</v>
+        <v>8.699999999999999</v>
       </c>
       <c r="AC22">
-        <v>3</v>
+        <v>3.98</v>
       </c>
       <c r="AD22">
         <v>1.45</v>
       </c>
       <c r="AE22">
-        <v>1.83</v>
+        <v>1.82</v>
       </c>
       <c r="AF22">
-        <v>2.4</v>
+        <v>2.34</v>
       </c>
       <c r="AG22">
-        <v>3.35</v>
+        <v>3.18</v>
       </c>
       <c r="AH22">
-        <v>4.8</v>
+        <v>4.5</v>
       </c>
     </row>
     <row r="23" spans="1:34">
@@ -3640,13 +3640,13 @@
         <v>217</v>
       </c>
       <c r="F23">
-        <v>2</v>
+        <v>2.17</v>
       </c>
       <c r="G23">
-        <v>3.3</v>
+        <v>3.28</v>
       </c>
       <c r="H23">
-        <v>3.6</v>
+        <v>3.48</v>
       </c>
       <c r="I23">
         <v>1.06</v>
@@ -3661,10 +3661,10 @@
         <v>3.38</v>
       </c>
       <c r="M23">
+        <v>1.82</v>
+      </c>
+      <c r="N23">
         <v>1.99</v>
-      </c>
-      <c r="N23">
-        <v>1.86</v>
       </c>
       <c r="O23">
         <v>1.4</v>
@@ -3688,10 +3688,10 @@
         <v>1.75</v>
       </c>
       <c r="V23">
-        <v>0.89</v>
+        <v>1.1</v>
       </c>
       <c r="W23">
-        <v>0.5</v>
+        <v>0.44</v>
       </c>
       <c r="X23">
         <v>1.47</v>
@@ -3744,13 +3744,13 @@
         <v>218</v>
       </c>
       <c r="F24">
-        <v>2.15</v>
+        <v>2.1</v>
       </c>
       <c r="G24">
-        <v>3.1</v>
+        <v>3.25</v>
       </c>
       <c r="H24">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="I24">
         <v>1.03</v>
@@ -3765,10 +3765,10 @@
         <v>3.08</v>
       </c>
       <c r="M24">
-        <v>2</v>
+        <v>1.97</v>
       </c>
       <c r="N24">
-        <v>1.67</v>
+        <v>1.78</v>
       </c>
       <c r="O24">
         <v>1.44</v>
@@ -3792,10 +3792,10 @@
         <v>1.61</v>
       </c>
       <c r="V24">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W24">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X24">
         <v>0</v>
@@ -3848,13 +3848,13 @@
         <v>219</v>
       </c>
       <c r="F25">
-        <v>2.86</v>
+        <v>2.6</v>
       </c>
       <c r="G25">
-        <v>3.54</v>
+        <v>3.3</v>
       </c>
       <c r="H25">
-        <v>2.4</v>
+        <v>2.6</v>
       </c>
       <c r="I25">
         <v>1.04</v>
@@ -3869,10 +3869,10 @@
         <v>3.2</v>
       </c>
       <c r="M25">
-        <v>2.03</v>
+        <v>2</v>
       </c>
       <c r="N25">
-        <v>1.8</v>
+        <v>1.76</v>
       </c>
       <c r="O25">
         <v>1.4</v>
@@ -3899,7 +3899,7 @@
         <v>1</v>
       </c>
       <c r="W25">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X25">
         <v>1.53</v>
@@ -3952,13 +3952,13 @@
         <v>220</v>
       </c>
       <c r="F26">
-        <v>2.6</v>
+        <v>2.63</v>
       </c>
       <c r="G26">
-        <v>2.9</v>
+        <v>3.1</v>
       </c>
       <c r="H26">
-        <v>2.55</v>
+        <v>2.63</v>
       </c>
       <c r="I26">
         <v>1.05</v>
@@ -3973,10 +3973,10 @@
         <v>2.95</v>
       </c>
       <c r="M26">
-        <v>2.15</v>
+        <v>2.16</v>
       </c>
       <c r="N26">
-        <v>1.57</v>
+        <v>1.66</v>
       </c>
       <c r="O26">
         <v>1.44</v>
@@ -4000,7 +4000,7 @@
         <v>1.42</v>
       </c>
       <c r="V26">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="W26">
         <v>0</v>
@@ -4056,10 +4056,10 @@
         <v>221</v>
       </c>
       <c r="F27">
-        <v>2.82</v>
+        <v>2.63</v>
       </c>
       <c r="G27">
-        <v>3.3</v>
+        <v>3.5</v>
       </c>
       <c r="H27">
         <v>2.25</v>
@@ -4077,16 +4077,16 @@
         <v>0</v>
       </c>
       <c r="M27">
-        <v>1.58</v>
+        <v>1.65</v>
       </c>
       <c r="N27">
-        <v>2.28</v>
+        <v>2.2</v>
       </c>
       <c r="O27">
-        <v>0</v>
+        <v>1.33</v>
       </c>
       <c r="P27">
-        <v>0</v>
+        <v>3.25</v>
       </c>
       <c r="Q27">
         <v>1.57</v>
@@ -4163,10 +4163,10 @@
         <v>1.43</v>
       </c>
       <c r="G28">
-        <v>4</v>
+        <v>4.4</v>
       </c>
       <c r="H28">
-        <v>5.8</v>
+        <v>7.8</v>
       </c>
       <c r="I28">
         <v>1.04</v>
@@ -4181,10 +4181,10 @@
         <v>3.35</v>
       </c>
       <c r="M28">
-        <v>2</v>
+        <v>2.04</v>
       </c>
       <c r="N28">
-        <v>1.8</v>
+        <v>1.78</v>
       </c>
       <c r="O28">
         <v>1.4</v>
@@ -4208,10 +4208,10 @@
         <v>2.84</v>
       </c>
       <c r="V28">
-        <v>2.3</v>
+        <v>2.09</v>
       </c>
       <c r="W28">
-        <v>0.7</v>
+        <v>0.91</v>
       </c>
       <c r="X28">
         <v>1.61</v>
@@ -4264,13 +4264,13 @@
         <v>223</v>
       </c>
       <c r="F29">
-        <v>2.23</v>
+        <v>2.25</v>
       </c>
       <c r="G29">
-        <v>3.05</v>
+        <v>3.1</v>
       </c>
       <c r="H29">
-        <v>3.05</v>
+        <v>3</v>
       </c>
       <c r="I29">
         <v>1.08</v>
@@ -4312,10 +4312,10 @@
         <v>1.52</v>
       </c>
       <c r="V29">
-        <v>1.4</v>
+        <v>1.27</v>
       </c>
       <c r="W29">
-        <v>1.36</v>
+        <v>1.5</v>
       </c>
       <c r="X29">
         <v>1.47</v>
@@ -4368,13 +4368,13 @@
         <v>224</v>
       </c>
       <c r="F30">
-        <v>2.18</v>
+        <v>2.2</v>
       </c>
       <c r="G30">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="H30">
-        <v>3</v>
+        <v>2.9</v>
       </c>
       <c r="I30">
         <v>1.06</v>
@@ -4416,10 +4416,10 @@
         <v>1.57</v>
       </c>
       <c r="V30">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="W30">
-        <v>1.64</v>
+        <v>1.58</v>
       </c>
       <c r="X30">
         <v>1.88</v>
@@ -4472,13 +4472,13 @@
         <v>225</v>
       </c>
       <c r="F31">
-        <v>6.25</v>
+        <v>7</v>
       </c>
       <c r="G31">
-        <v>4.55</v>
+        <v>4.88</v>
       </c>
       <c r="H31">
-        <v>1.36</v>
+        <v>1.42</v>
       </c>
       <c r="I31">
         <v>1.02</v>
@@ -4520,10 +4520,10 @@
         <v>1.11</v>
       </c>
       <c r="V31">
-        <v>1.09</v>
+        <v>1</v>
       </c>
       <c r="W31">
-        <v>2.18</v>
+        <v>2.25</v>
       </c>
       <c r="X31">
         <v>1.61</v>
@@ -4624,10 +4624,10 @@
         <v>1.33</v>
       </c>
       <c r="V32">
-        <v>1.46</v>
+        <v>1.43</v>
       </c>
       <c r="W32">
-        <v>1.25</v>
+        <v>1.23</v>
       </c>
       <c r="X32">
         <v>1.49</v>
@@ -4680,13 +4680,13 @@
         <v>227</v>
       </c>
       <c r="F33">
-        <v>2.49</v>
+        <v>2.51</v>
       </c>
       <c r="G33">
-        <v>3.1</v>
+        <v>3.34</v>
       </c>
       <c r="H33">
-        <v>2.65</v>
+        <v>2.77</v>
       </c>
       <c r="I33">
         <v>1.03</v>
@@ -4701,10 +4701,10 @@
         <v>3.5</v>
       </c>
       <c r="M33">
-        <v>2.11</v>
+        <v>2.05</v>
       </c>
       <c r="N33">
-        <v>1.8</v>
+        <v>1.77</v>
       </c>
       <c r="O33">
         <v>1.4</v>
@@ -4728,10 +4728,10 @@
         <v>1.4</v>
       </c>
       <c r="V33">
-        <v>1.6</v>
+        <v>1.45</v>
       </c>
       <c r="W33">
-        <v>1.2</v>
+        <v>1.36</v>
       </c>
       <c r="X33">
         <v>1.49</v>
@@ -4784,13 +4784,13 @@
         <v>228</v>
       </c>
       <c r="F34">
-        <v>4.35</v>
+        <v>5</v>
       </c>
       <c r="G34">
-        <v>3.45</v>
+        <v>3.7</v>
       </c>
       <c r="H34">
-        <v>1.64</v>
+        <v>1.65</v>
       </c>
       <c r="I34">
         <v>1.06</v>
@@ -4805,10 +4805,10 @@
         <v>3.4</v>
       </c>
       <c r="M34">
-        <v>1.82</v>
+        <v>1.91</v>
       </c>
       <c r="N34">
-        <v>1.83</v>
+        <v>1.89</v>
       </c>
       <c r="O34">
         <v>1.44</v>
@@ -4832,10 +4832,10 @@
         <v>1.18</v>
       </c>
       <c r="V34">
-        <v>1.58</v>
+        <v>1.69</v>
       </c>
       <c r="W34">
-        <v>1.55</v>
+        <v>1.42</v>
       </c>
       <c r="X34">
         <v>1.58</v>
@@ -4888,13 +4888,13 @@
         <v>229</v>
       </c>
       <c r="F35">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="G35">
-        <v>3.15</v>
+        <v>3.4</v>
       </c>
       <c r="H35">
-        <v>3</v>
+        <v>3.4</v>
       </c>
       <c r="I35">
         <v>1.04</v>
@@ -4909,10 +4909,10 @@
         <v>3.6</v>
       </c>
       <c r="M35">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="N35">
-        <v>1.81</v>
+        <v>1.85</v>
       </c>
       <c r="O35">
         <v>1.36</v>
@@ -4992,13 +4992,13 @@
         <v>230</v>
       </c>
       <c r="F36">
-        <v>2.12</v>
+        <v>2.05</v>
       </c>
       <c r="G36">
-        <v>3.15</v>
+        <v>3.3</v>
       </c>
       <c r="H36">
-        <v>3.25</v>
+        <v>3.1</v>
       </c>
       <c r="I36">
         <v>1.03</v>
@@ -5096,13 +5096,13 @@
         <v>231</v>
       </c>
       <c r="F37">
-        <v>2.65</v>
+        <v>2.8</v>
       </c>
       <c r="G37">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="H37">
-        <v>2.25</v>
+        <v>2.4</v>
       </c>
       <c r="I37">
         <v>1.05</v>
@@ -5117,10 +5117,10 @@
         <v>3.3</v>
       </c>
       <c r="M37">
-        <v>1.73</v>
+        <v>1.97</v>
       </c>
       <c r="N37">
-        <v>1.92</v>
+        <v>1.84</v>
       </c>
       <c r="O37">
         <v>1.4</v>
@@ -5200,13 +5200,13 @@
         <v>232</v>
       </c>
       <c r="F38">
-        <v>1.71</v>
+        <v>1.7</v>
       </c>
       <c r="G38">
-        <v>3.4</v>
+        <v>3.7</v>
       </c>
       <c r="H38">
-        <v>4.1</v>
+        <v>4.6</v>
       </c>
       <c r="I38">
         <v>1.02</v>
@@ -5221,10 +5221,10 @@
         <v>3.26</v>
       </c>
       <c r="M38">
-        <v>1.8</v>
+        <v>1.97</v>
       </c>
       <c r="N38">
-        <v>1.85</v>
+        <v>1.84</v>
       </c>
       <c r="O38">
         <v>1.4</v>
@@ -5304,13 +5304,13 @@
         <v>233</v>
       </c>
       <c r="F39">
-        <v>1.83</v>
+        <v>1.87</v>
       </c>
       <c r="G39">
-        <v>3.5</v>
+        <v>3.8</v>
       </c>
       <c r="H39">
-        <v>3.45</v>
+        <v>3.6</v>
       </c>
       <c r="I39">
         <v>1</v>
@@ -5325,10 +5325,10 @@
         <v>4.45</v>
       </c>
       <c r="M39">
-        <v>1.61</v>
+        <v>1.64</v>
       </c>
       <c r="N39">
-        <v>2.05</v>
+        <v>2.25</v>
       </c>
       <c r="O39">
         <v>1.29</v>
@@ -5408,13 +5408,13 @@
         <v>234</v>
       </c>
       <c r="F40">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="G40">
+        <v>3.6</v>
+      </c>
+      <c r="H40">
         <v>3.3</v>
-      </c>
-      <c r="H40">
-        <v>3.35</v>
       </c>
       <c r="I40">
         <v>1.04</v>
@@ -5429,10 +5429,10 @@
         <v>3.6</v>
       </c>
       <c r="M40">
-        <v>1.75</v>
+        <v>1.86</v>
       </c>
       <c r="N40">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="O40">
         <v>1.36</v>
@@ -5512,13 +5512,13 @@
         <v>235</v>
       </c>
       <c r="F41">
-        <v>1.63</v>
+        <v>1.57</v>
       </c>
       <c r="G41">
-        <v>3.55</v>
+        <v>3.6</v>
       </c>
       <c r="H41">
-        <v>4.4</v>
+        <v>5</v>
       </c>
       <c r="I41">
         <v>1.05</v>
@@ -5533,10 +5533,10 @@
         <v>3</v>
       </c>
       <c r="M41">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="N41">
-        <v>1.67</v>
+        <v>1.7</v>
       </c>
       <c r="O41">
         <v>1.44</v>
@@ -5616,13 +5616,13 @@
         <v>236</v>
       </c>
       <c r="F42">
-        <v>2.11</v>
+        <v>1.92</v>
       </c>
       <c r="G42">
-        <v>3.06</v>
+        <v>3.2</v>
       </c>
       <c r="H42">
-        <v>3.72</v>
+        <v>3.95</v>
       </c>
       <c r="I42">
         <v>1.1</v>
@@ -5720,13 +5720,13 @@
         <v>237</v>
       </c>
       <c r="F43">
-        <v>3.3</v>
+        <v>3.5</v>
       </c>
       <c r="G43">
-        <v>3.35</v>
+        <v>3.6</v>
       </c>
       <c r="H43">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="I43">
         <v>1.02</v>
@@ -5741,10 +5741,10 @@
         <v>3.7</v>
       </c>
       <c r="M43">
-        <v>1.76</v>
+        <v>1.82</v>
       </c>
       <c r="N43">
-        <v>1.89</v>
+        <v>2</v>
       </c>
       <c r="O43">
         <v>1.36</v>
@@ -5824,13 +5824,13 @@
         <v>238</v>
       </c>
       <c r="F44">
-        <v>1.76</v>
+        <v>1.8</v>
       </c>
       <c r="G44">
-        <v>3.45</v>
+        <v>3.8</v>
       </c>
       <c r="H44">
-        <v>3.65</v>
+        <v>4</v>
       </c>
       <c r="I44">
         <v>1.04</v>
@@ -5845,10 +5845,10 @@
         <v>4.2</v>
       </c>
       <c r="M44">
-        <v>1.67</v>
+        <v>1.72</v>
       </c>
       <c r="N44">
-        <v>2</v>
+        <v>2.12</v>
       </c>
       <c r="O44">
         <v>1.33</v>
@@ -5928,13 +5928,13 @@
         <v>239</v>
       </c>
       <c r="F45">
-        <v>2.66</v>
+        <v>2.6</v>
       </c>
       <c r="G45">
-        <v>3.4</v>
+        <v>3.2</v>
       </c>
       <c r="H45">
-        <v>2.33</v>
+        <v>2.45</v>
       </c>
       <c r="I45">
         <v>1.04</v>
@@ -5949,10 +5949,10 @@
         <v>3.9</v>
       </c>
       <c r="M45">
-        <v>1.88</v>
+        <v>1.81</v>
       </c>
       <c r="N45">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="O45">
         <v>1.32</v>
@@ -6032,13 +6032,13 @@
         <v>240</v>
       </c>
       <c r="F46">
-        <v>2.62</v>
+        <v>2.3</v>
       </c>
       <c r="G46">
-        <v>2.91</v>
+        <v>2.8</v>
       </c>
       <c r="H46">
-        <v>2.57</v>
+        <v>3.2</v>
       </c>
       <c r="I46">
         <v>1.1</v>
@@ -6047,7 +6047,7 @@
         <v>5.7</v>
       </c>
       <c r="K46">
-        <v>1.5</v>
+        <v>1.58</v>
       </c>
       <c r="L46">
         <v>2.3</v>
@@ -6136,13 +6136,13 @@
         <v>241</v>
       </c>
       <c r="F47">
-        <v>1.61</v>
+        <v>1.62</v>
       </c>
       <c r="G47">
-        <v>3.82</v>
+        <v>3.7</v>
       </c>
       <c r="H47">
-        <v>5.66</v>
+        <v>5</v>
       </c>
       <c r="I47">
         <v>1.06</v>
@@ -6157,10 +6157,10 @@
         <v>3.25</v>
       </c>
       <c r="M47">
-        <v>2.03</v>
+        <v>1.95</v>
       </c>
       <c r="N47">
-        <v>1.81</v>
+        <v>1.85</v>
       </c>
       <c r="O47">
         <v>1.4</v>
@@ -6240,13 +6240,13 @@
         <v>242</v>
       </c>
       <c r="F48">
-        <v>3.2</v>
+        <v>3</v>
       </c>
       <c r="G48">
-        <v>3.55</v>
+        <v>3.8</v>
       </c>
       <c r="H48">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="I48">
         <v>1.04</v>
@@ -6344,52 +6344,52 @@
         <v>243</v>
       </c>
       <c r="F49">
-        <v>1.83</v>
+        <v>1.75</v>
       </c>
       <c r="G49">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="H49">
-        <v>3.45</v>
+        <v>3.8</v>
       </c>
       <c r="I49">
-        <v>0</v>
+        <v>1.03</v>
       </c>
       <c r="J49">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="K49">
-        <v>0</v>
+        <v>1.2</v>
       </c>
       <c r="L49">
-        <v>0</v>
+        <v>4.3</v>
       </c>
       <c r="M49">
-        <v>1.73</v>
+        <v>1.68</v>
       </c>
       <c r="N49">
-        <v>2.11</v>
+        <v>2.1</v>
       </c>
       <c r="O49">
-        <v>0</v>
+        <v>1.33</v>
       </c>
       <c r="P49">
-        <v>0</v>
+        <v>3.25</v>
       </c>
       <c r="Q49">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="R49">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="S49">
-        <v>0</v>
+        <v>1.19</v>
       </c>
       <c r="T49">
-        <v>0</v>
+        <v>1.24</v>
       </c>
       <c r="U49">
-        <v>0</v>
+        <v>1.98</v>
       </c>
       <c r="V49">
         <v>1.45</v>
@@ -6419,16 +6419,16 @@
         <v>0</v>
       </c>
       <c r="AE49">
-        <v>0</v>
+        <v>1.25</v>
       </c>
       <c r="AF49">
-        <v>1.52</v>
+        <v>1.53</v>
       </c>
       <c r="AG49">
-        <v>1.84</v>
+        <v>1.85</v>
       </c>
       <c r="AH49">
-        <v>2.26</v>
+        <v>2.28</v>
       </c>
     </row>
     <row r="50" spans="1:34">
@@ -6448,25 +6448,25 @@
         <v>244</v>
       </c>
       <c r="F50">
-        <v>1.85</v>
+        <v>1.75</v>
       </c>
       <c r="G50">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="H50">
-        <v>3.4</v>
+        <v>3.8</v>
       </c>
       <c r="I50">
-        <v>0</v>
+        <v>1.03</v>
       </c>
       <c r="J50">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="K50">
-        <v>0</v>
+        <v>1.2</v>
       </c>
       <c r="L50">
-        <v>0</v>
+        <v>4.3</v>
       </c>
       <c r="M50">
         <v>1.68</v>
@@ -6475,25 +6475,25 @@
         <v>2.1</v>
       </c>
       <c r="O50">
-        <v>0</v>
+        <v>1.33</v>
       </c>
       <c r="P50">
-        <v>0</v>
+        <v>3.25</v>
       </c>
       <c r="Q50">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="R50">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="S50">
-        <v>0</v>
+        <v>1.19</v>
       </c>
       <c r="T50">
-        <v>0</v>
+        <v>1.24</v>
       </c>
       <c r="U50">
-        <v>0</v>
+        <v>1.98</v>
       </c>
       <c r="V50">
         <v>1.73</v>
@@ -6520,13 +6520,13 @@
         <v>3.44</v>
       </c>
       <c r="AD50">
-        <v>0</v>
+        <v>1.14</v>
       </c>
       <c r="AE50">
-        <v>0</v>
+        <v>1.29</v>
       </c>
       <c r="AF50">
-        <v>1.62</v>
+        <v>1.83</v>
       </c>
       <c r="AG50">
         <v>1.99</v>
@@ -6552,52 +6552,52 @@
         <v>245</v>
       </c>
       <c r="F51">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="G51">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="H51">
-        <v>2.96</v>
+        <v>3.1</v>
       </c>
       <c r="I51">
-        <v>0</v>
+        <v>1.02</v>
       </c>
       <c r="J51">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="K51">
-        <v>0</v>
+        <v>1.2</v>
       </c>
       <c r="L51">
-        <v>0</v>
+        <v>4.5</v>
       </c>
       <c r="M51">
-        <v>1.82</v>
+        <v>1.66</v>
       </c>
       <c r="N51">
-        <v>2.02</v>
+        <v>2.16</v>
       </c>
       <c r="O51">
-        <v>0</v>
+        <v>1.33</v>
       </c>
       <c r="P51">
-        <v>0</v>
+        <v>3.25</v>
       </c>
       <c r="Q51">
-        <v>1.62</v>
+        <v>1.67</v>
       </c>
       <c r="R51">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="S51">
-        <v>0</v>
+        <v>1.34</v>
       </c>
       <c r="T51">
-        <v>0</v>
+        <v>1.24</v>
       </c>
       <c r="U51">
-        <v>0</v>
+        <v>1.68</v>
       </c>
       <c r="V51">
         <v>1</v>
@@ -6618,25 +6618,25 @@
         <v>1.57</v>
       </c>
       <c r="AB51">
-        <v>7.5</v>
+        <v>8.300000000000001</v>
       </c>
       <c r="AC51">
-        <v>3.03</v>
+        <v>3.01</v>
       </c>
       <c r="AD51">
-        <v>0</v>
+        <v>1.18</v>
       </c>
       <c r="AE51">
-        <v>0</v>
+        <v>1.39</v>
       </c>
       <c r="AF51">
-        <v>1.72</v>
+        <v>2</v>
       </c>
       <c r="AG51">
         <v>2.12</v>
       </c>
       <c r="AH51">
-        <v>0</v>
+        <v>2.65</v>
       </c>
     </row>
     <row r="52" spans="1:34">
@@ -6656,13 +6656,13 @@
         <v>246</v>
       </c>
       <c r="F52">
-        <v>1.85</v>
+        <v>1.87</v>
       </c>
       <c r="G52">
-        <v>3.6</v>
+        <v>3.7</v>
       </c>
       <c r="H52">
-        <v>3.55</v>
+        <v>3.7</v>
       </c>
       <c r="I52">
         <v>1.03</v>
@@ -6760,13 +6760,13 @@
         <v>247</v>
       </c>
       <c r="F53">
-        <v>2.2</v>
+        <v>2.3</v>
       </c>
       <c r="G53">
-        <v>2.95</v>
+        <v>3.3</v>
       </c>
       <c r="H53">
-        <v>3</v>
+        <v>2.9</v>
       </c>
       <c r="I53">
         <v>1.05</v>
@@ -6781,10 +6781,10 @@
         <v>2.94</v>
       </c>
       <c r="M53">
-        <v>1.96</v>
+        <v>2</v>
       </c>
       <c r="N53">
-        <v>1.79</v>
+        <v>1.81</v>
       </c>
       <c r="O53">
         <v>1.42</v>
@@ -6864,13 +6864,13 @@
         <v>248</v>
       </c>
       <c r="F54">
-        <v>4.75</v>
+        <v>5.5</v>
       </c>
       <c r="G54">
-        <v>4.25</v>
+        <v>4.6</v>
       </c>
       <c r="H54">
-        <v>1.48</v>
+        <v>1.47</v>
       </c>
       <c r="I54">
         <v>1.02</v>
@@ -6885,10 +6885,10 @@
         <v>4.87</v>
       </c>
       <c r="M54">
-        <v>1.53</v>
+        <v>1.55</v>
       </c>
       <c r="N54">
-        <v>2.35</v>
+        <v>2.4</v>
       </c>
       <c r="O54">
         <v>1.26</v>
@@ -6968,13 +6968,13 @@
         <v>249</v>
       </c>
       <c r="F55">
-        <v>2.38</v>
+        <v>2.3</v>
       </c>
       <c r="G55">
         <v>3.3</v>
       </c>
       <c r="H55">
-        <v>3</v>
+        <v>2.9</v>
       </c>
       <c r="I55">
         <v>1.06</v>
@@ -6989,10 +6989,10 @@
         <v>3.4</v>
       </c>
       <c r="M55">
-        <v>1.86</v>
+        <v>1.95</v>
       </c>
       <c r="N55">
-        <v>1.95</v>
+        <v>1.85</v>
       </c>
       <c r="O55">
         <v>1.4</v>
@@ -7072,10 +7072,10 @@
         <v>250</v>
       </c>
       <c r="F56">
-        <v>2.7</v>
+        <v>2.75</v>
       </c>
       <c r="G56">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="H56">
         <v>2.3</v>
@@ -7093,10 +7093,10 @@
         <v>0</v>
       </c>
       <c r="M56">
-        <v>1.66</v>
+        <v>1.63</v>
       </c>
       <c r="N56">
-        <v>2.2</v>
+        <v>2.23</v>
       </c>
       <c r="O56">
         <v>0</v>
@@ -7176,13 +7176,13 @@
         <v>251</v>
       </c>
       <c r="F57">
-        <v>2.7</v>
+        <v>2.55</v>
       </c>
       <c r="G57">
         <v>3.3</v>
       </c>
       <c r="H57">
-        <v>2.38</v>
+        <v>2.63</v>
       </c>
       <c r="I57">
         <v>0</v>
@@ -7197,10 +7197,10 @@
         <v>0</v>
       </c>
       <c r="M57">
-        <v>1.72</v>
+        <v>1.67</v>
       </c>
       <c r="N57">
-        <v>2.1</v>
+        <v>2.12</v>
       </c>
       <c r="O57">
         <v>0</v>
@@ -7280,13 +7280,13 @@
         <v>252</v>
       </c>
       <c r="F58">
-        <v>2.47</v>
+        <v>2.63</v>
       </c>
       <c r="G58">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="H58">
-        <v>2.68</v>
+        <v>2.63</v>
       </c>
       <c r="I58">
         <v>1.05</v>
@@ -7301,10 +7301,10 @@
         <v>3.3</v>
       </c>
       <c r="M58">
-        <v>2.08</v>
+        <v>1.87</v>
       </c>
       <c r="N58">
-        <v>1.78</v>
+        <v>1.89</v>
       </c>
       <c r="O58">
         <v>1.4</v>
@@ -7384,37 +7384,37 @@
         <v>253</v>
       </c>
       <c r="F59">
-        <v>1.7</v>
+        <v>1.65</v>
       </c>
       <c r="G59">
         <v>3.75</v>
       </c>
       <c r="H59">
-        <v>3.8</v>
+        <v>4.2</v>
       </c>
       <c r="I59">
-        <v>0</v>
+        <v>1.04</v>
       </c>
       <c r="J59">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="K59">
-        <v>0</v>
+        <v>1.28</v>
       </c>
       <c r="L59">
-        <v>0</v>
+        <v>3.5</v>
       </c>
       <c r="M59">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="N59">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="O59">
-        <v>0</v>
+        <v>1.36</v>
       </c>
       <c r="P59">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="Q59">
         <v>1.83</v>
@@ -7423,13 +7423,13 @@
         <v>1.83</v>
       </c>
       <c r="S59">
-        <v>0</v>
+        <v>1.15</v>
       </c>
       <c r="T59">
-        <v>0</v>
+        <v>1.2</v>
       </c>
       <c r="U59">
-        <v>0</v>
+        <v>2.05</v>
       </c>
       <c r="V59">
         <v>2.82</v>
@@ -7447,28 +7447,28 @@
         <v>3.84</v>
       </c>
       <c r="AA59">
-        <v>1.62</v>
+        <v>1.57</v>
       </c>
       <c r="AB59">
-        <v>9.4</v>
+        <v>7.6</v>
       </c>
       <c r="AC59">
-        <v>2.76</v>
+        <v>3.11</v>
       </c>
       <c r="AD59">
-        <v>0</v>
+        <v>1.48</v>
       </c>
       <c r="AE59">
-        <v>0</v>
+        <v>1.87</v>
       </c>
       <c r="AF59">
-        <v>0</v>
+        <v>2.46</v>
       </c>
       <c r="AG59">
-        <v>0</v>
+        <v>3.42</v>
       </c>
       <c r="AH59">
-        <v>0</v>
+        <v>5.2</v>
       </c>
     </row>
     <row r="60" spans="1:34">
@@ -7488,13 +7488,13 @@
         <v>254</v>
       </c>
       <c r="F60">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="G60">
-        <v>2.95</v>
+        <v>3.2</v>
       </c>
       <c r="H60">
-        <v>3.35</v>
+        <v>3.5</v>
       </c>
       <c r="I60">
         <v>1.07</v>
@@ -7509,10 +7509,10 @@
         <v>2.75</v>
       </c>
       <c r="M60">
-        <v>2.3</v>
+        <v>2.23</v>
       </c>
       <c r="N60">
-        <v>1.53</v>
+        <v>1.66</v>
       </c>
       <c r="O60">
         <v>1.53</v>
@@ -7592,13 +7592,13 @@
         <v>255</v>
       </c>
       <c r="F61">
-        <v>2.35</v>
+        <v>2.3</v>
       </c>
       <c r="G61">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="H61">
-        <v>2.7</v>
+        <v>3.1</v>
       </c>
       <c r="I61">
         <v>1.07</v>
@@ -7613,10 +7613,10 @@
         <v>2.8</v>
       </c>
       <c r="M61">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="N61">
-        <v>1.61</v>
+        <v>1.73</v>
       </c>
       <c r="O61">
         <v>1.5</v>
@@ -7696,13 +7696,13 @@
         <v>256</v>
       </c>
       <c r="F62">
-        <v>3.35</v>
+        <v>3.3</v>
       </c>
       <c r="G62">
-        <v>3.1</v>
+        <v>3.25</v>
       </c>
       <c r="H62">
-        <v>2</v>
+        <v>2.15</v>
       </c>
       <c r="I62">
         <v>1.06</v>
@@ -7717,10 +7717,10 @@
         <v>3.3</v>
       </c>
       <c r="M62">
-        <v>1.87</v>
+        <v>1.98</v>
       </c>
       <c r="N62">
-        <v>1.89</v>
+        <v>1.82</v>
       </c>
       <c r="O62">
         <v>1.44</v>
@@ -7800,13 +7800,13 @@
         <v>257</v>
       </c>
       <c r="F63">
-        <v>2.15</v>
+        <v>2.1</v>
       </c>
       <c r="G63">
-        <v>2.9</v>
+        <v>3.4</v>
       </c>
       <c r="H63">
-        <v>3.1</v>
+        <v>3.3</v>
       </c>
       <c r="I63">
         <v>1.03</v>
@@ -7821,10 +7821,10 @@
         <v>4.3</v>
       </c>
       <c r="M63">
-        <v>1.84</v>
+        <v>1.81</v>
       </c>
       <c r="N63">
-        <v>1.89</v>
+        <v>2</v>
       </c>
       <c r="O63">
         <v>1.33</v>
@@ -7904,13 +7904,13 @@
         <v>258</v>
       </c>
       <c r="F64">
-        <v>2.24</v>
+        <v>2.1</v>
       </c>
       <c r="G64">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="H64">
-        <v>2.71</v>
+        <v>2.9</v>
       </c>
       <c r="I64">
         <v>1.04</v>
@@ -7925,10 +7925,10 @@
         <v>4</v>
       </c>
       <c r="M64">
-        <v>1.72</v>
+        <v>1.79</v>
       </c>
       <c r="N64">
-        <v>2.12</v>
+        <v>1.95</v>
       </c>
       <c r="O64">
         <v>1.33</v>
@@ -8008,13 +8008,13 @@
         <v>259</v>
       </c>
       <c r="F65">
-        <v>1.64</v>
+        <v>1.5</v>
       </c>
       <c r="G65">
-        <v>3.65</v>
+        <v>4</v>
       </c>
       <c r="H65">
-        <v>4.3</v>
+        <v>6</v>
       </c>
       <c r="I65">
         <v>1.05</v>
@@ -8029,10 +8029,10 @@
         <v>3.5</v>
       </c>
       <c r="M65">
-        <v>1.93</v>
+        <v>1.92</v>
       </c>
       <c r="N65">
-        <v>1.93</v>
+        <v>1.83</v>
       </c>
       <c r="O65">
         <v>1.37</v>
@@ -8112,13 +8112,13 @@
         <v>260</v>
       </c>
       <c r="F66">
-        <v>1.62</v>
+        <v>1.65</v>
       </c>
       <c r="G66">
-        <v>3.54</v>
+        <v>3.6</v>
       </c>
       <c r="H66">
-        <v>4.07</v>
+        <v>5</v>
       </c>
       <c r="I66">
         <v>1.04</v>
@@ -8133,10 +8133,10 @@
         <v>3.9</v>
       </c>
       <c r="M66">
-        <v>1.87</v>
+        <v>1.73</v>
       </c>
       <c r="N66">
-        <v>1.99</v>
+        <v>2.04</v>
       </c>
       <c r="O66">
         <v>1.36</v>
@@ -8184,7 +8184,7 @@
         <v>4.9</v>
       </c>
       <c r="AD66">
-        <v>0</v>
+        <v>1.13</v>
       </c>
       <c r="AE66">
         <v>1.27</v>
@@ -8219,10 +8219,10 @@
         <v>1.33</v>
       </c>
       <c r="G67">
-        <v>4.4</v>
+        <v>4.75</v>
       </c>
       <c r="H67">
-        <v>7.2</v>
+        <v>7.5</v>
       </c>
       <c r="I67">
         <v>1.04</v>
@@ -8320,13 +8320,13 @@
         <v>262</v>
       </c>
       <c r="F68">
-        <v>3.05</v>
+        <v>3.3</v>
       </c>
       <c r="G68">
-        <v>3.15</v>
+        <v>3.4</v>
       </c>
       <c r="H68">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="I68">
         <v>1.06</v>
@@ -8341,10 +8341,10 @@
         <v>3.3</v>
       </c>
       <c r="M68">
-        <v>1.93</v>
+        <v>2.05</v>
       </c>
       <c r="N68">
-        <v>1.73</v>
+        <v>1.78</v>
       </c>
       <c r="O68">
         <v>1.4</v>
@@ -8424,13 +8424,13 @@
         <v>263</v>
       </c>
       <c r="F69">
-        <v>3.55</v>
+        <v>4</v>
       </c>
       <c r="G69">
         <v>3.3</v>
       </c>
       <c r="H69">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="I69">
         <v>1.04</v>
@@ -8528,10 +8528,10 @@
         <v>264</v>
       </c>
       <c r="F70">
-        <v>2.28</v>
+        <v>2.15</v>
       </c>
       <c r="G70">
-        <v>3.05</v>
+        <v>3.2</v>
       </c>
       <c r="H70">
         <v>3</v>
@@ -8632,13 +8632,13 @@
         <v>265</v>
       </c>
       <c r="F71">
-        <v>2.85</v>
+        <v>2.7</v>
       </c>
       <c r="G71">
-        <v>3.05</v>
+        <v>3</v>
       </c>
       <c r="H71">
-        <v>2.48</v>
+        <v>2.75</v>
       </c>
       <c r="I71">
         <v>1.08</v>
@@ -8736,13 +8736,13 @@
         <v>266</v>
       </c>
       <c r="F72">
-        <v>2.3</v>
+        <v>2.55</v>
       </c>
       <c r="G72">
-        <v>3.15</v>
+        <v>3.1</v>
       </c>
       <c r="H72">
-        <v>3.05</v>
+        <v>2.75</v>
       </c>
       <c r="I72">
         <v>1.08</v>
@@ -8840,13 +8840,13 @@
         <v>267</v>
       </c>
       <c r="F73">
-        <v>2.3</v>
+        <v>2.38</v>
       </c>
       <c r="G73">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="H73">
-        <v>3</v>
+        <v>2.8</v>
       </c>
       <c r="I73">
         <v>1.04</v>
@@ -8861,10 +8861,10 @@
         <v>3.6</v>
       </c>
       <c r="M73">
-        <v>1.87</v>
+        <v>1.83</v>
       </c>
       <c r="N73">
-        <v>1.94</v>
+        <v>1.97</v>
       </c>
       <c r="O73">
         <v>1.36</v>
@@ -8944,13 +8944,13 @@
         <v>268</v>
       </c>
       <c r="F74">
-        <v>1.45</v>
+        <v>1.44</v>
       </c>
       <c r="G74">
-        <v>3.95</v>
+        <v>4.33</v>
       </c>
       <c r="H74">
-        <v>5.6</v>
+        <v>6.5</v>
       </c>
       <c r="I74">
         <v>1.04</v>
@@ -8965,10 +8965,10 @@
         <v>4.02</v>
       </c>
       <c r="M74">
-        <v>1.75</v>
+        <v>1.79</v>
       </c>
       <c r="N74">
-        <v>2.08</v>
+        <v>2.02</v>
       </c>
       <c r="O74">
         <v>1.33</v>
@@ -9048,13 +9048,13 @@
         <v>269</v>
       </c>
       <c r="F75">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="G75">
-        <v>3.4</v>
+        <v>3.7</v>
       </c>
       <c r="H75">
-        <v>1.86</v>
+        <v>1.91</v>
       </c>
       <c r="I75">
         <v>1.03</v>
@@ -9069,10 +9069,10 @@
         <v>3.75</v>
       </c>
       <c r="M75">
-        <v>1.72</v>
+        <v>1.74</v>
       </c>
       <c r="N75">
-        <v>1.89</v>
+        <v>2.1</v>
       </c>
       <c r="O75">
         <v>1.36</v>
@@ -9152,13 +9152,13 @@
         <v>270</v>
       </c>
       <c r="F76">
-        <v>1.88</v>
+        <v>1.78</v>
       </c>
       <c r="G76">
-        <v>2.95</v>
+        <v>3.05</v>
       </c>
       <c r="H76">
-        <v>4</v>
+        <v>4.7</v>
       </c>
       <c r="I76">
         <v>1.11</v>
@@ -9167,10 +9167,10 @@
         <v>6.75</v>
       </c>
       <c r="K76">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="L76">
-        <v>2.35</v>
+        <v>2.4</v>
       </c>
       <c r="M76">
         <v>2.73</v>
@@ -9256,13 +9256,13 @@
         <v>271</v>
       </c>
       <c r="F77">
-        <v>1.73</v>
+        <v>1.71</v>
       </c>
       <c r="G77">
-        <v>3.7</v>
+        <v>3.85</v>
       </c>
       <c r="H77">
-        <v>3.65</v>
+        <v>4.1</v>
       </c>
       <c r="I77">
         <v>0</v>
@@ -9277,10 +9277,10 @@
         <v>0</v>
       </c>
       <c r="M77">
-        <v>1.72</v>
+        <v>1.68</v>
       </c>
       <c r="N77">
-        <v>2.12</v>
+        <v>2.1</v>
       </c>
       <c r="O77">
         <v>0</v>
@@ -9360,13 +9360,13 @@
         <v>272</v>
       </c>
       <c r="F78">
-        <v>1.26</v>
+        <v>1.29</v>
       </c>
       <c r="G78">
-        <v>4.49</v>
+        <v>4.5</v>
       </c>
       <c r="H78">
-        <v>10.24</v>
+        <v>9.5</v>
       </c>
       <c r="I78">
         <v>1.07</v>
@@ -9381,10 +9381,10 @@
         <v>3</v>
       </c>
       <c r="M78">
-        <v>2.1</v>
+        <v>1.98</v>
       </c>
       <c r="N78">
-        <v>1.61</v>
+        <v>1.79</v>
       </c>
       <c r="O78">
         <v>1.44</v>
@@ -9464,13 +9464,13 @@
         <v>273</v>
       </c>
       <c r="F79">
-        <v>2.26</v>
+        <v>2.1</v>
       </c>
       <c r="G79">
-        <v>3.05</v>
+        <v>2.88</v>
       </c>
       <c r="H79">
-        <v>2.9</v>
+        <v>3.5</v>
       </c>
       <c r="I79">
         <v>1.12</v>
@@ -9479,10 +9479,10 @@
         <v>6</v>
       </c>
       <c r="K79">
-        <v>1.53</v>
+        <v>1.65</v>
       </c>
       <c r="L79">
-        <v>2.25</v>
+        <v>2.17</v>
       </c>
       <c r="M79">
         <v>2.4</v>
@@ -9568,13 +9568,13 @@
         <v>274</v>
       </c>
       <c r="F80">
-        <v>1.81</v>
+        <v>1.75</v>
       </c>
       <c r="G80">
-        <v>3.46</v>
+        <v>3.5</v>
       </c>
       <c r="H80">
-        <v>4.7</v>
+        <v>4.5</v>
       </c>
       <c r="I80">
         <v>1.07</v>
@@ -9592,7 +9592,7 @@
         <v>2.25</v>
       </c>
       <c r="N80">
-        <v>1.66</v>
+        <v>1.64</v>
       </c>
       <c r="O80">
         <v>1.44</v>
@@ -9776,13 +9776,13 @@
         <v>276</v>
       </c>
       <c r="F82">
-        <v>2.43</v>
+        <v>2.3</v>
       </c>
       <c r="G82">
-        <v>2.95</v>
+        <v>3.1</v>
       </c>
       <c r="H82">
-        <v>3.05</v>
+        <v>3.2</v>
       </c>
       <c r="I82">
         <v>1.11</v>
@@ -9880,13 +9880,13 @@
         <v>277</v>
       </c>
       <c r="F83">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="G83">
-        <v>5.4</v>
+        <v>5.42</v>
       </c>
       <c r="H83">
-        <v>7.2</v>
+        <v>10.1</v>
       </c>
       <c r="I83">
         <v>1.02</v>
@@ -9984,13 +9984,13 @@
         <v>278</v>
       </c>
       <c r="F84">
-        <v>2.51</v>
+        <v>2.63</v>
       </c>
       <c r="G84">
-        <v>3.16</v>
+        <v>3.5</v>
       </c>
       <c r="H84">
-        <v>2.43</v>
+        <v>2.45</v>
       </c>
       <c r="I84">
         <v>1.02</v>
@@ -10005,7 +10005,7 @@
         <v>4</v>
       </c>
       <c r="M84">
-        <v>1.76</v>
+        <v>1.72</v>
       </c>
       <c r="N84">
         <v>2.06</v>
@@ -10088,13 +10088,13 @@
         <v>279</v>
       </c>
       <c r="F85">
-        <v>1.7</v>
+        <v>1.67</v>
       </c>
       <c r="G85">
-        <v>3.54</v>
+        <v>3.8</v>
       </c>
       <c r="H85">
-        <v>3.88</v>
+        <v>4.6</v>
       </c>
       <c r="I85">
         <v>1.05</v>
@@ -10109,7 +10109,7 @@
         <v>3.85</v>
       </c>
       <c r="M85">
-        <v>1.9</v>
+        <v>1.78</v>
       </c>
       <c r="N85">
         <v>1.98</v>
@@ -10192,10 +10192,10 @@
         <v>280</v>
       </c>
       <c r="F86">
-        <v>2.6</v>
+        <v>2.5</v>
       </c>
       <c r="G86">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="H86">
         <v>2.8</v>
@@ -10213,10 +10213,10 @@
         <v>2.85</v>
       </c>
       <c r="M86">
-        <v>2.3</v>
+        <v>2.23</v>
       </c>
       <c r="N86">
-        <v>1.6</v>
+        <v>1.61</v>
       </c>
       <c r="O86">
         <v>1.44</v>
@@ -10296,13 +10296,13 @@
         <v>281</v>
       </c>
       <c r="F87">
-        <v>1.94</v>
+        <v>1.95</v>
       </c>
       <c r="G87">
-        <v>3.45</v>
+        <v>3.3</v>
       </c>
       <c r="H87">
-        <v>3.45</v>
+        <v>3.3</v>
       </c>
       <c r="I87">
         <v>1.06</v>
@@ -10400,13 +10400,13 @@
         <v>282</v>
       </c>
       <c r="F88">
-        <v>1.6</v>
+        <v>1.57</v>
       </c>
       <c r="G88">
-        <v>3.7</v>
+        <v>4.2</v>
       </c>
       <c r="H88">
-        <v>4.4</v>
+        <v>5</v>
       </c>
       <c r="I88">
         <v>1.03</v>
@@ -10421,10 +10421,10 @@
         <v>4.08</v>
       </c>
       <c r="M88">
-        <v>1.61</v>
+        <v>1.62</v>
       </c>
       <c r="N88">
-        <v>2.2</v>
+        <v>2.28</v>
       </c>
       <c r="O88">
         <v>1.32</v>
@@ -10504,10 +10504,10 @@
         <v>283</v>
       </c>
       <c r="F89">
-        <v>3.35</v>
+        <v>3.5</v>
       </c>
       <c r="G89">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="H89">
         <v>2.2</v>
@@ -10525,7 +10525,7 @@
         <v>2.43</v>
       </c>
       <c r="M89">
-        <v>2.3</v>
+        <v>2.55</v>
       </c>
       <c r="N89">
         <v>1.5</v>
@@ -10608,13 +10608,13 @@
         <v>284</v>
       </c>
       <c r="F90">
-        <v>1.77</v>
+        <v>1.7</v>
       </c>
       <c r="G90">
-        <v>3.5</v>
+        <v>3.8</v>
       </c>
       <c r="H90">
-        <v>4</v>
+        <v>4.5</v>
       </c>
       <c r="I90">
         <v>1.03</v>
@@ -10715,10 +10715,10 @@
         <v>1.11</v>
       </c>
       <c r="G91">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="H91">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="I91">
         <v>0</v>
@@ -10816,13 +10816,13 @@
         <v>286</v>
       </c>
       <c r="F92">
-        <v>1.71</v>
+        <v>1.75</v>
       </c>
       <c r="G92">
-        <v>3.5</v>
+        <v>3.8</v>
       </c>
       <c r="H92">
-        <v>3.9</v>
+        <v>4.2</v>
       </c>
       <c r="I92">
         <v>1.01</v>
@@ -10837,10 +10837,10 @@
         <v>3.55</v>
       </c>
       <c r="M92">
-        <v>1.75</v>
+        <v>1.84</v>
       </c>
       <c r="N92">
-        <v>1.87</v>
+        <v>1.96</v>
       </c>
       <c r="O92">
         <v>1.36</v>
@@ -10920,13 +10920,13 @@
         <v>287</v>
       </c>
       <c r="F93">
-        <v>2.87</v>
+        <v>3.6</v>
       </c>
       <c r="G93">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="H93">
-        <v>2.29</v>
+        <v>2</v>
       </c>
       <c r="I93">
         <v>1.02</v>
@@ -10941,10 +10941,10 @@
         <v>3.55</v>
       </c>
       <c r="M93">
-        <v>2.11</v>
+        <v>1.96</v>
       </c>
       <c r="N93">
-        <v>1.8</v>
+        <v>1.81</v>
       </c>
       <c r="O93">
         <v>1.4</v>
@@ -11033,16 +11033,16 @@
         <v>3.8</v>
       </c>
       <c r="I94">
-        <v>0</v>
+        <v>1.05</v>
       </c>
       <c r="J94">
-        <v>0</v>
+        <v>10.5</v>
       </c>
       <c r="K94">
-        <v>0</v>
+        <v>1.3</v>
       </c>
       <c r="L94">
-        <v>0</v>
+        <v>3.35</v>
       </c>
       <c r="M94">
         <v>2.05</v>
@@ -11051,10 +11051,10 @@
         <v>1.75</v>
       </c>
       <c r="O94">
-        <v>0</v>
+        <v>1.44</v>
       </c>
       <c r="P94">
-        <v>0</v>
+        <v>2.63</v>
       </c>
       <c r="Q94">
         <v>1.83</v>
@@ -11063,13 +11063,13 @@
         <v>1.83</v>
       </c>
       <c r="S94">
-        <v>0</v>
+        <v>1.18</v>
       </c>
       <c r="T94">
-        <v>0</v>
+        <v>1.22</v>
       </c>
       <c r="U94">
-        <v>0</v>
+        <v>1.9</v>
       </c>
       <c r="V94">
         <v>2.09</v>
@@ -11090,25 +11090,25 @@
         <v>1.51</v>
       </c>
       <c r="AB94">
-        <v>9.800000000000001</v>
+        <v>7.2</v>
       </c>
       <c r="AC94">
-        <v>3.12</v>
+        <v>3.44</v>
       </c>
       <c r="AD94">
-        <v>0</v>
+        <v>1.4</v>
       </c>
       <c r="AE94">
-        <v>0</v>
+        <v>1.75</v>
       </c>
       <c r="AF94">
-        <v>0</v>
+        <v>2.25</v>
       </c>
       <c r="AG94">
-        <v>0</v>
+        <v>3.04</v>
       </c>
       <c r="AH94">
-        <v>0</v>
+        <v>4.6</v>
       </c>
     </row>
     <row r="95" spans="1:34">
@@ -11131,10 +11131,10 @@
         <v>3</v>
       </c>
       <c r="G95">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="H95">
-        <v>2.1</v>
+        <v>2.15</v>
       </c>
       <c r="I95">
         <v>1.04</v>
@@ -11149,10 +11149,10 @@
         <v>3.73</v>
       </c>
       <c r="M95">
-        <v>1.85</v>
+        <v>2.02</v>
       </c>
       <c r="N95">
-        <v>1.95</v>
+        <v>1.72</v>
       </c>
       <c r="O95">
         <v>1.36</v>
@@ -11235,10 +11235,10 @@
         <v>1.29</v>
       </c>
       <c r="G96">
-        <v>5.72</v>
+        <v>5</v>
       </c>
       <c r="H96">
-        <v>8.94</v>
+        <v>8.5</v>
       </c>
       <c r="I96">
         <v>1.02</v>
@@ -11336,13 +11336,13 @@
         <v>291</v>
       </c>
       <c r="F97">
-        <v>2.17</v>
+        <v>2.25</v>
       </c>
       <c r="G97">
-        <v>3.19</v>
+        <v>3.4</v>
       </c>
       <c r="H97">
-        <v>2.93</v>
+        <v>3</v>
       </c>
       <c r="I97">
         <v>1.06</v>
@@ -11357,10 +11357,10 @@
         <v>4</v>
       </c>
       <c r="M97">
-        <v>1.81</v>
+        <v>1.72</v>
       </c>
       <c r="N97">
-        <v>1.91</v>
+        <v>2</v>
       </c>
       <c r="O97">
         <v>1.4</v>
@@ -11440,13 +11440,13 @@
         <v>292</v>
       </c>
       <c r="F98">
-        <v>2.37</v>
+        <v>2.25</v>
       </c>
       <c r="G98">
-        <v>3.15</v>
+        <v>3.5</v>
       </c>
       <c r="H98">
-        <v>2.63</v>
+        <v>2.9</v>
       </c>
       <c r="I98">
         <v>1.04</v>
@@ -11461,7 +11461,7 @@
         <v>3.3</v>
       </c>
       <c r="M98">
-        <v>2.06</v>
+        <v>2.02</v>
       </c>
       <c r="N98">
         <v>1.8</v>
@@ -11544,13 +11544,13 @@
         <v>293</v>
       </c>
       <c r="F99">
-        <v>1.79</v>
+        <v>1.85</v>
       </c>
       <c r="G99">
-        <v>3.65</v>
+        <v>3.5</v>
       </c>
       <c r="H99">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="I99">
         <v>1.05</v>
@@ -11565,10 +11565,10 @@
         <v>3.5</v>
       </c>
       <c r="M99">
-        <v>2.04</v>
+        <v>1.89</v>
       </c>
       <c r="N99">
-        <v>1.82</v>
+        <v>1.86</v>
       </c>
       <c r="O99">
         <v>1.38</v>
@@ -11616,7 +11616,7 @@
         <v>4.35</v>
       </c>
       <c r="AD99">
-        <v>0</v>
+        <v>1.16</v>
       </c>
       <c r="AE99">
         <v>1.3</v>
@@ -11651,10 +11651,10 @@
         <v>1.62</v>
       </c>
       <c r="G100">
-        <v>3.55</v>
+        <v>4</v>
       </c>
       <c r="H100">
-        <v>4.4</v>
+        <v>5</v>
       </c>
       <c r="I100">
         <v>1.04</v>
@@ -11669,10 +11669,10 @@
         <v>3.75</v>
       </c>
       <c r="M100">
-        <v>1.81</v>
+        <v>1.87</v>
       </c>
       <c r="N100">
-        <v>1.84</v>
+        <v>1.93</v>
       </c>
       <c r="O100">
         <v>1.36</v>
@@ -11752,13 +11752,13 @@
         <v>295</v>
       </c>
       <c r="F101">
-        <v>1.83</v>
+        <v>1.91</v>
       </c>
       <c r="G101">
-        <v>3.35</v>
+        <v>3.6</v>
       </c>
       <c r="H101">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="I101">
         <v>1.04</v>
@@ -11773,10 +11773,10 @@
         <v>3.6</v>
       </c>
       <c r="M101">
-        <v>1.76</v>
+        <v>1.8</v>
       </c>
       <c r="N101">
-        <v>1.89</v>
+        <v>2.02</v>
       </c>
       <c r="O101">
         <v>1.36</v>
@@ -11856,13 +11856,13 @@
         <v>296</v>
       </c>
       <c r="F102">
-        <v>1.38</v>
+        <v>1.36</v>
       </c>
       <c r="G102">
-        <v>3.92</v>
+        <v>4</v>
       </c>
       <c r="H102">
-        <v>7.35</v>
+        <v>7</v>
       </c>
       <c r="I102">
         <v>1.06</v>
@@ -11877,10 +11877,10 @@
         <v>2.9</v>
       </c>
       <c r="M102">
-        <v>2.1</v>
+        <v>2.16</v>
       </c>
       <c r="N102">
-        <v>1.6</v>
+        <v>1.66</v>
       </c>
       <c r="O102">
         <v>1.45</v>
@@ -11966,7 +11966,7 @@
         <v>4.75</v>
       </c>
       <c r="H103">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="I103">
         <v>1.02</v>
@@ -11984,7 +11984,7 @@
         <v>1.61</v>
       </c>
       <c r="N103">
-        <v>2.3</v>
+        <v>2.33</v>
       </c>
       <c r="O103">
         <v>1.29</v>
@@ -12064,10 +12064,10 @@
         <v>298</v>
       </c>
       <c r="F104">
-        <v>1.7</v>
+        <v>1.73</v>
       </c>
       <c r="G104">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="H104">
         <v>5</v>
@@ -12085,10 +12085,10 @@
         <v>2.95</v>
       </c>
       <c r="M104">
-        <v>2.42</v>
+        <v>2.23</v>
       </c>
       <c r="N104">
-        <v>1.51</v>
+        <v>1.61</v>
       </c>
       <c r="O104">
         <v>1.44</v>
@@ -12168,13 +12168,13 @@
         <v>299</v>
       </c>
       <c r="F105">
-        <v>2.9</v>
+        <v>3</v>
       </c>
       <c r="G105">
         <v>3.1</v>
       </c>
       <c r="H105">
-        <v>2.5</v>
+        <v>2.4</v>
       </c>
       <c r="I105">
         <v>1.07</v>
@@ -12189,10 +12189,10 @@
         <v>2.8</v>
       </c>
       <c r="M105">
-        <v>2.2</v>
+        <v>2.28</v>
       </c>
       <c r="N105">
-        <v>1.66</v>
+        <v>1.58</v>
       </c>
       <c r="O105">
         <v>1.5</v>
@@ -12272,13 +12272,13 @@
         <v>300</v>
       </c>
       <c r="F106">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="G106">
-        <v>3.1</v>
+        <v>3.4</v>
       </c>
       <c r="H106">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="I106">
         <v>1.06</v>
@@ -12293,10 +12293,10 @@
         <v>3.1</v>
       </c>
       <c r="M106">
-        <v>2.03</v>
+        <v>1.97</v>
       </c>
       <c r="N106">
-        <v>1.83</v>
+        <v>1.84</v>
       </c>
       <c r="O106">
         <v>1.44</v>
@@ -12397,10 +12397,10 @@
         <v>4.33</v>
       </c>
       <c r="M107">
-        <v>1.57</v>
+        <v>1.65</v>
       </c>
       <c r="N107">
-        <v>2.32</v>
+        <v>2.2</v>
       </c>
       <c r="O107">
         <v>1.29</v>
@@ -12480,10 +12480,10 @@
         <v>302</v>
       </c>
       <c r="F108">
-        <v>4.4</v>
+        <v>4.5</v>
       </c>
       <c r="G108">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="H108">
         <v>1.75</v>
@@ -12501,10 +12501,10 @@
         <v>3.1</v>
       </c>
       <c r="M108">
-        <v>1.96</v>
+        <v>2.28</v>
       </c>
       <c r="N108">
-        <v>1.8</v>
+        <v>1.61</v>
       </c>
       <c r="O108">
         <v>1.37</v>
@@ -12584,13 +12584,13 @@
         <v>303</v>
       </c>
       <c r="F109">
+        <v>2.8</v>
+      </c>
+      <c r="G109">
+        <v>3.4</v>
+      </c>
+      <c r="H109">
         <v>2.4</v>
-      </c>
-      <c r="G109">
-        <v>3.5</v>
-      </c>
-      <c r="H109">
-        <v>2.3</v>
       </c>
       <c r="I109">
         <v>1.03</v>
@@ -12605,10 +12605,10 @@
         <v>4.68</v>
       </c>
       <c r="M109">
-        <v>1.7</v>
+        <v>1.74</v>
       </c>
       <c r="N109">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="O109">
         <v>1.3</v>
@@ -12688,13 +12688,13 @@
         <v>304</v>
       </c>
       <c r="F110">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="G110">
-        <v>2.95</v>
+        <v>3.4</v>
       </c>
       <c r="H110">
-        <v>3</v>
+        <v>3.3</v>
       </c>
       <c r="I110">
         <v>1.05</v>
@@ -12709,10 +12709,10 @@
         <v>3.6</v>
       </c>
       <c r="M110">
-        <v>1.81</v>
+        <v>1.86</v>
       </c>
       <c r="N110">
-        <v>1.84</v>
+        <v>1.94</v>
       </c>
       <c r="O110">
         <v>1.36</v>
@@ -12792,13 +12792,13 @@
         <v>305</v>
       </c>
       <c r="F111">
-        <v>2.63</v>
+        <v>2.6</v>
       </c>
       <c r="G111">
-        <v>2.76</v>
+        <v>2.75</v>
       </c>
       <c r="H111">
-        <v>2.65</v>
+        <v>2.8</v>
       </c>
       <c r="I111">
         <v>1.15</v>
@@ -12896,13 +12896,13 @@
         <v>306</v>
       </c>
       <c r="F112">
-        <v>1.93</v>
+        <v>1.8</v>
       </c>
       <c r="G112">
-        <v>3.39</v>
+        <v>3.3</v>
       </c>
       <c r="H112">
-        <v>4.19</v>
+        <v>4.75</v>
       </c>
       <c r="I112">
         <v>1.09</v>
@@ -12917,10 +12917,10 @@
         <v>2.79</v>
       </c>
       <c r="M112">
-        <v>2.35</v>
+        <v>2.23</v>
       </c>
       <c r="N112">
-        <v>1.6</v>
+        <v>1.65</v>
       </c>
       <c r="O112">
         <v>1.5</v>
@@ -13208,13 +13208,13 @@
         <v>309</v>
       </c>
       <c r="F115">
-        <v>2.49</v>
+        <v>2.38</v>
       </c>
       <c r="G115">
-        <v>3.14</v>
+        <v>3.1</v>
       </c>
       <c r="H115">
-        <v>2.87</v>
+        <v>2.8</v>
       </c>
       <c r="I115">
         <v>1.07</v>
@@ -13229,10 +13229,10 @@
         <v>2.69</v>
       </c>
       <c r="M115">
-        <v>2.4</v>
+        <v>2</v>
       </c>
       <c r="N115">
-        <v>1.54</v>
+        <v>1.72</v>
       </c>
       <c r="O115">
         <v>1.44</v>
@@ -13312,10 +13312,10 @@
         <v>310</v>
       </c>
       <c r="F116">
-        <v>1.18</v>
+        <v>1.15</v>
       </c>
       <c r="G116">
-        <v>6.5</v>
+        <v>7.5</v>
       </c>
       <c r="H116">
         <v>15</v>
@@ -13437,10 +13437,10 @@
         <v>0</v>
       </c>
       <c r="M117">
-        <v>2.1</v>
+        <v>2.11</v>
       </c>
       <c r="N117">
-        <v>1.69</v>
+        <v>1.68</v>
       </c>
       <c r="O117">
         <v>0</v>
@@ -13520,13 +13520,13 @@
         <v>312</v>
       </c>
       <c r="F118">
-        <v>2.35</v>
+        <v>2.8</v>
       </c>
       <c r="G118">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="H118">
-        <v>2.7</v>
+        <v>2.45</v>
       </c>
       <c r="I118">
         <v>1.05</v>
@@ -13541,10 +13541,10 @@
         <v>3.5</v>
       </c>
       <c r="M118">
-        <v>1.75</v>
+        <v>1.88</v>
       </c>
       <c r="N118">
-        <v>1.91</v>
+        <v>1.98</v>
       </c>
       <c r="O118">
         <v>1.37</v>
@@ -13624,13 +13624,13 @@
         <v>313</v>
       </c>
       <c r="F119">
-        <v>2.6</v>
+        <v>2.55</v>
       </c>
       <c r="G119">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="H119">
-        <v>2.37</v>
+        <v>2.7</v>
       </c>
       <c r="I119">
         <v>1.07</v>
@@ -13645,7 +13645,7 @@
         <v>3</v>
       </c>
       <c r="M119">
-        <v>1.67</v>
+        <v>1.81</v>
       </c>
       <c r="N119">
         <v>2</v>
@@ -13835,10 +13835,10 @@
         <v>1.36</v>
       </c>
       <c r="G121">
-        <v>4.86</v>
+        <v>4.75</v>
       </c>
       <c r="H121">
-        <v>7.8</v>
+        <v>7</v>
       </c>
       <c r="I121">
         <v>0</v>
@@ -13939,7 +13939,7 @@
         <v>1.3</v>
       </c>
       <c r="G122">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="H122">
         <v>10</v>
@@ -13957,10 +13957,10 @@
         <v>3.15</v>
       </c>
       <c r="M122">
-        <v>1.87</v>
+        <v>2.03</v>
       </c>
       <c r="N122">
-        <v>1.87</v>
+        <v>1.83</v>
       </c>
       <c r="O122">
         <v>1.4</v>
@@ -14040,13 +14040,13 @@
         <v>317</v>
       </c>
       <c r="F123">
-        <v>1.38</v>
+        <v>1.4</v>
       </c>
       <c r="G123">
-        <v>4.5</v>
+        <v>4.75</v>
       </c>
       <c r="H123">
-        <v>6.99</v>
+        <v>8</v>
       </c>
       <c r="I123">
         <v>1.05</v>
@@ -14061,10 +14061,10 @@
         <v>3.75</v>
       </c>
       <c r="M123">
-        <v>1.75</v>
+        <v>1.83</v>
       </c>
       <c r="N123">
-        <v>1.96</v>
+        <v>2.03</v>
       </c>
       <c r="O123">
         <v>1.34</v>
